--- a/Varios/Arreglos_pruebas_os.xlsx
+++ b/Varios/Arreglos_pruebas_os.xlsx
@@ -14,14 +14,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>xp</t>
   </si>
   <si>
-    <t>xp 64</t>
-  </si>
-  <si>
     <t>win7</t>
   </si>
   <si>
@@ -38,6 +35,27 @@
   </si>
   <si>
     <t>win10 64</t>
+  </si>
+  <si>
+    <t>Administrador</t>
+  </si>
+  <si>
+    <t>Usuario común</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>Windows 8 y 10 ya trae instalado el framework .net  no agregarlo al paquete de instalacion para descargar</t>
+  </si>
+  <si>
+    <t>Error de comprobación de los requisitos previos del componente del sistema MySQL Server 5.5 con el siguiente mensaje:</t>
+  </si>
+  <si>
+    <t>Windows Installer 3.1 no se admite en un sistema operativo de 64 bits. Póngase en contacto con el proveedor de la aplicación.</t>
+  </si>
+  <si>
+    <t>Vea el archivo de registro de la instalación que se encuentra en 'C:\Users\Benja\AppData\Local\Temp\VSD9AE8.tmp\install.log' para obtener más información.</t>
   </si>
 </sst>
 </file>
@@ -379,52 +397,97 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A16" sqref="A16:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
